--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2777.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2777.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167972702133673</v>
+        <v>1.437828183174133</v>
       </c>
       <c r="B1">
-        <v>2.429080228433552</v>
+        <v>2.002362728118896</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.559284925460815</v>
       </c>
       <c r="D1">
-        <v>2.36948190461583</v>
+        <v>3.522897005081177</v>
       </c>
       <c r="E1">
-        <v>1.231434576256258</v>
+        <v>0.8067057132720947</v>
       </c>
     </row>
   </sheetData>
